--- a/src/main/resources/已分类案件相似匹配.xlsx
+++ b/src/main/resources/已分类案件相似匹配.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>申请号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>匹配类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出案日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,7 +421,7 @@
     <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,6 +456,9 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
